--- a/templates/BOM_input_template.xlsx
+++ b/templates/BOM_input_template.xlsx
@@ -1,152 +1,55 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
-  <fileSharing readOnlyRecommended="1"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\bom_quoter\templates\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EDBA1D-B941-42ED-8AF6-17572B592478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <workbookProtection lockStructure="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-24285" yWindow="4860" windowWidth="21585" windowHeight="11295" activeTab="1" xr2:uid="{A643327B-FFB7-48C7-B58E-76214EFD00D3}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="BOM" sheetId="3" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="BOM" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Best_Prices" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
-  <si>
-    <t>Qty</t>
-  </si>
-  <si>
-    <t>Qty Order</t>
-  </si>
-  <si>
-    <t>Qty Order 1</t>
-  </si>
-  <si>
-    <t>Qty Order 2</t>
-  </si>
-  <si>
-    <t>Qty Order 3</t>
-  </si>
-  <si>
-    <t>Qty Order 4</t>
-  </si>
-  <si>
-    <t>Qty Order 5</t>
-  </si>
-  <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Reference Designators</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Manufacturer Part Number</t>
-  </si>
-  <si>
-    <t>Manufacturer</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Qty Need</t>
-  </si>
-  <si>
-    <t>Qty Buy</t>
-  </si>
-  <si>
-    <t>Q1 Need</t>
-  </si>
-  <si>
-    <t>Q1 Buy</t>
-  </si>
-  <si>
-    <t>Q2 Need</t>
-  </si>
-  <si>
-    <t>Q2 Buy</t>
-  </si>
-  <si>
-    <t>Q3 Need</t>
-  </si>
-  <si>
-    <t>Q3 Buy</t>
-  </si>
-  <si>
-    <t>Q4 Need</t>
-  </si>
-  <si>
-    <t>Q4 Buy</t>
-  </si>
-  <si>
-    <t>Q5 Need</t>
-  </si>
-  <si>
-    <t>Q5 Buy</t>
-  </si>
-  <si>
-    <t>Internal P/N</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Arial"/>
+      <b val="1"/>
       <sz val="10"/>
-      <name val="Arial"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -169,29 +72,115 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -491,52 +480,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B07567C-B2C2-40D2-8792-57EF2963CCB1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.140625" bestFit="1" customWidth="1"/>
+    <col width="11.140625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="4.140625" bestFit="1" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Qty Order</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Qty Order 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Qty Order 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Qty Order 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Qty Order 4</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Qty Order 5</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -545,86 +552,620 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF6A93F-99C1-4203-9FAA-463834DFD921}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:T1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1:Y1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col width="5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="25.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13.140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="8.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="9.28515625" customWidth="1" min="9" max="9"/>
+    <col width="8" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>25</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Internal P/N</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reference Designators</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturer Part Number</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Qty Need</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Qty Buy</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 Need</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 Buy</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 Need</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 Buy</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 Need</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 Buy</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 Need</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 Buy</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Q5 Need</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Q5 Buy</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AZ1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AN1" sqref="AN1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="5" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="11.7109375" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="11.140625" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="21.85546875" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="9.7109375" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="25.5703125" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="13.140625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="8.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="9.28515625" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="8" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="9.85546875" bestFit="1" customWidth="1" min="11" max="11"/>
+    <col width="3.85546875" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="7.140625" bestFit="1" customWidth="1" min="13" max="13"/>
+    <col width="10.7109375" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="6.28515625" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="6" bestFit="1" customWidth="1" min="16" max="16"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="14.5703125" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="14" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="15.42578125" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" min="24" max="24"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" min="25" max="25"/>
+    <col width="6.85546875" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="27" max="27"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="28" max="28"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" min="29" max="29"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" min="30" max="30"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" min="31" max="31"/>
+    <col width="6.85546875" bestFit="1" customWidth="1" min="32" max="32"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="33" max="33"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="34" max="34"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" min="35" max="35"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" min="36" max="36"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" min="37" max="37"/>
+    <col width="6.85546875" bestFit="1" customWidth="1" min="38" max="38"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="39" max="39"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="40" max="40"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" min="41" max="41"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" min="42" max="42"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" min="43" max="43"/>
+    <col width="6.85546875" bestFit="1" customWidth="1" min="44" max="44"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="45" max="45"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" min="46" max="46"/>
+    <col width="7.42578125" bestFit="1" customWidth="1" min="47" max="47"/>
+    <col width="11.28515625" bestFit="1" customWidth="1" min="48" max="48"/>
+    <col width="12.85546875" bestFit="1" customWidth="1" min="49" max="49"/>
+    <col width="6.85546875" bestFit="1" customWidth="1" min="50" max="50"/>
+    <col width="10.140625" bestFit="1" customWidth="1" min="51" max="51"/>
+    <col width="4.7109375" bestFit="1" customWidth="1" min="52" max="52"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Internal P/N</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reference Designators</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Comment</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturer Part Number</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturer</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Qty Need</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Qty Buy</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Unit Price</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Ext</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Excess</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Lead Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Q O H</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>Supplier</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>Mounting Type</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>Package/Case</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>Terminations</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>TTI Min Buy Qty</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 Need</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 Buy</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>Min Q1 Buy</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 Unit Price</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 Ext</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>Q1 Excess</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 Need</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 Buy</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>Min Q2 Buy</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 Unit Price</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 Ext</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>Q2 Excess</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 Need</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 Buy</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>Min Q3 Buy</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 Unit Price</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 Ext</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>Q3 Excess</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 Need</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 Buy</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Min Q4 Buy</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 Unit Price</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 Ext</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>Q4 Excess</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>Q5 Need</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>Q5 Buy</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>Min Q5 Buy</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>Q5 Unit Price</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Q5 Ext</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>Q5 Excess</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>URL</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Summary</t>
+        </is>
+      </c>
+      <c r="B1" s="3" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Total Items</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Unknown Price Items</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SMT Items</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>SMT Terminals</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Unknown Terminals SMT Items</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TH Items</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TH Terminals</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Unknown Terminals TH Items</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MEC Items</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MEC Terminals</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Unknown Terminals MEC Items</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>